--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il4-Il13ra1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6936916564088</v>
+        <v>0.7922663333333334</v>
       </c>
       <c r="H2">
-        <v>0.6936916564088</v>
+        <v>2.376799</v>
       </c>
       <c r="I2">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="J2">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.35476550138397</v>
+        <v>5.760626333333334</v>
       </c>
       <c r="N2">
-        <v>5.35476550138397</v>
+        <v>17.281879</v>
       </c>
       <c r="O2">
-        <v>0.1093795281207988</v>
+        <v>0.1124958508646345</v>
       </c>
       <c r="P2">
-        <v>0.1093795281207988</v>
+        <v>0.1124958508646345</v>
       </c>
       <c r="Q2">
-        <v>3.714556150335745</v>
+        <v>4.563950302813445</v>
       </c>
       <c r="R2">
-        <v>3.714556150335745</v>
+        <v>41.075552725321</v>
       </c>
       <c r="S2">
-        <v>0.01903112032750135</v>
+        <v>0.01979463170344956</v>
       </c>
       <c r="T2">
-        <v>0.01903112032750135</v>
+        <v>0.01979463170344956</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6936916564088</v>
+        <v>0.7922663333333334</v>
       </c>
       <c r="H3">
-        <v>0.6936916564088</v>
+        <v>2.376799</v>
       </c>
       <c r="I3">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="J3">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>28.3729251100688</v>
+        <v>28.56714433333333</v>
       </c>
       <c r="N3">
-        <v>28.3729251100688</v>
+        <v>85.70143299999999</v>
       </c>
       <c r="O3">
-        <v>0.5795617304145235</v>
+        <v>0.5578707978254833</v>
       </c>
       <c r="P3">
-        <v>0.5795617304145235</v>
+        <v>0.5578707978254833</v>
       </c>
       <c r="Q3">
-        <v>19.68206141676646</v>
+        <v>22.63278669477411</v>
       </c>
       <c r="R3">
-        <v>19.68206141676646</v>
+        <v>203.695080252967</v>
       </c>
       <c r="S3">
-        <v>0.1008388792512662</v>
+        <v>0.09816226017395782</v>
       </c>
       <c r="T3">
-        <v>0.1008388792512662</v>
+        <v>0.09816226017395785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6936916564088</v>
+        <v>0.7922663333333334</v>
       </c>
       <c r="H4">
-        <v>0.6936916564088</v>
+        <v>2.376799</v>
       </c>
       <c r="I4">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="J4">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.4617223884512</v>
+        <v>12.81995433333333</v>
       </c>
       <c r="N4">
-        <v>11.4617223884512</v>
+        <v>38.459863</v>
       </c>
       <c r="O4">
-        <v>0.2341237512597641</v>
+        <v>0.2503532753771899</v>
       </c>
       <c r="P4">
-        <v>0.2341237512597641</v>
+        <v>0.2503532753771899</v>
       </c>
       <c r="Q4">
-        <v>7.950901188942541</v>
+        <v>10.15681821317078</v>
       </c>
       <c r="R4">
-        <v>7.950901188942541</v>
+        <v>91.41136391853701</v>
       </c>
       <c r="S4">
-        <v>0.04073556869645443</v>
+        <v>0.04405185474624181</v>
       </c>
       <c r="T4">
-        <v>0.04073556869645443</v>
+        <v>0.04405185474624182</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6936916564088</v>
+        <v>0.7922663333333334</v>
       </c>
       <c r="H5">
-        <v>0.6936916564088</v>
+        <v>2.376799</v>
       </c>
       <c r="I5">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="J5">
-        <v>0.17399161117685</v>
+        <v>0.1759587713796512</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.76641624329926</v>
+        <v>4.059731</v>
       </c>
       <c r="N5">
-        <v>3.76641624329926</v>
+        <v>12.179193</v>
       </c>
       <c r="O5">
-        <v>0.07693499020491353</v>
+        <v>0.0792800759326923</v>
       </c>
       <c r="P5">
-        <v>0.07693499020491353</v>
+        <v>0.07928007593269232</v>
       </c>
       <c r="Q5">
-        <v>2.612731522539274</v>
+        <v>3.216388193689667</v>
       </c>
       <c r="R5">
-        <v>2.612731522539274</v>
+        <v>28.947493743207</v>
       </c>
       <c r="S5">
-        <v>0.01338604290162808</v>
+        <v>0.01395002475600199</v>
       </c>
       <c r="T5">
-        <v>0.01338604290162808</v>
+        <v>0.013950024756002</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.06030720464197</v>
+        <v>2.077831666666667</v>
       </c>
       <c r="H6">
-        <v>2.06030720464197</v>
+        <v>6.233495</v>
       </c>
       <c r="I6">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="J6">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.35476550138397</v>
+        <v>5.760626333333334</v>
       </c>
       <c r="N6">
-        <v>5.35476550138397</v>
+        <v>17.281879</v>
       </c>
       <c r="O6">
-        <v>0.1093795281207988</v>
+        <v>0.1124958508646345</v>
       </c>
       <c r="P6">
-        <v>0.1093795281207988</v>
+        <v>0.1124958508646345</v>
       </c>
       <c r="Q6">
-        <v>11.03246194166966</v>
+        <v>11.96961181523389</v>
       </c>
       <c r="R6">
-        <v>11.03246194166966</v>
+        <v>107.726506337105</v>
       </c>
       <c r="S6">
-        <v>0.05652360664988657</v>
+        <v>0.05191425011130277</v>
       </c>
       <c r="T6">
-        <v>0.05652360664988657</v>
+        <v>0.05191425011130277</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.06030720464197</v>
+        <v>2.077831666666667</v>
       </c>
       <c r="H7">
-        <v>2.06030720464197</v>
+        <v>6.233495</v>
       </c>
       <c r="I7">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="J7">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.3729251100688</v>
+        <v>28.56714433333333</v>
       </c>
       <c r="N7">
-        <v>28.3729251100688</v>
+        <v>85.70143299999999</v>
       </c>
       <c r="O7">
-        <v>0.5795617304145235</v>
+        <v>0.5578707978254833</v>
       </c>
       <c r="P7">
-        <v>0.5795617304145235</v>
+        <v>0.5578707978254833</v>
       </c>
       <c r="Q7">
-        <v>58.4569420210418</v>
+        <v>59.35771712203723</v>
       </c>
       <c r="R7">
-        <v>58.4569420210418</v>
+        <v>534.2194540983349</v>
       </c>
       <c r="S7">
-        <v>0.2994977199307276</v>
+        <v>0.2574445537813947</v>
       </c>
       <c r="T7">
-        <v>0.2994977199307276</v>
+        <v>0.2574445537813948</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.06030720464197</v>
+        <v>2.077831666666667</v>
       </c>
       <c r="H8">
-        <v>2.06030720464197</v>
+        <v>6.233495</v>
       </c>
       <c r="I8">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="J8">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.4617223884512</v>
+        <v>12.81995433333333</v>
       </c>
       <c r="N8">
-        <v>11.4617223884512</v>
+        <v>38.459863</v>
       </c>
       <c r="O8">
-        <v>0.2341237512597641</v>
+        <v>0.2503532753771899</v>
       </c>
       <c r="P8">
-        <v>0.2341237512597641</v>
+        <v>0.2503532753771899</v>
       </c>
       <c r="Q8">
-        <v>23.61466921453217</v>
+        <v>26.63770707902056</v>
       </c>
       <c r="R8">
-        <v>23.61466921453217</v>
+        <v>239.739363711185</v>
       </c>
       <c r="S8">
-        <v>0.1209871632376005</v>
+        <v>0.115532283672883</v>
       </c>
       <c r="T8">
-        <v>0.1209871632376005</v>
+        <v>0.115532283672883</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.06030720464197</v>
+        <v>2.077831666666667</v>
       </c>
       <c r="H9">
-        <v>2.06030720464197</v>
+        <v>6.233495</v>
       </c>
       <c r="I9">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="J9">
-        <v>0.5167658667119307</v>
+        <v>0.4614770208171574</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.76641624329926</v>
+        <v>4.059731</v>
       </c>
       <c r="N9">
-        <v>3.76641624329926</v>
+        <v>12.179193</v>
       </c>
       <c r="O9">
-        <v>0.07693499020491353</v>
+        <v>0.0792800759326923</v>
       </c>
       <c r="P9">
-        <v>0.07693499020491353</v>
+        <v>0.07928007593269232</v>
       </c>
       <c r="Q9">
-        <v>7.759974521750007</v>
+        <v>8.435437629948336</v>
       </c>
       <c r="R9">
-        <v>7.759974521750007</v>
+        <v>75.91893866953501</v>
       </c>
       <c r="S9">
-        <v>0.03975737689371604</v>
+        <v>0.03658593325157686</v>
       </c>
       <c r="T9">
-        <v>0.03975737689371604</v>
+        <v>0.03658593325157687</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.686366068743921</v>
+        <v>0.8480786666666668</v>
       </c>
       <c r="H10">
-        <v>0.686366068743921</v>
+        <v>2.544236</v>
       </c>
       <c r="I10">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="J10">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.35476550138397</v>
+        <v>5.760626333333334</v>
       </c>
       <c r="N10">
-        <v>5.35476550138397</v>
+        <v>17.281879</v>
       </c>
       <c r="O10">
-        <v>0.1093795281207988</v>
+        <v>0.1124958508646345</v>
       </c>
       <c r="P10">
-        <v>0.1093795281207988</v>
+        <v>0.1124958508646345</v>
       </c>
       <c r="Q10">
-        <v>3.675329346230487</v>
+        <v>4.885464299938223</v>
       </c>
       <c r="R10">
-        <v>3.675329346230487</v>
+        <v>43.969178699444</v>
       </c>
       <c r="S10">
-        <v>0.01883014610641628</v>
+        <v>0.0211890928036648</v>
       </c>
       <c r="T10">
-        <v>0.01883014610641628</v>
+        <v>0.0211890928036648</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.686366068743921</v>
+        <v>0.8480786666666668</v>
       </c>
       <c r="H11">
-        <v>0.686366068743921</v>
+        <v>2.544236</v>
       </c>
       <c r="I11">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="J11">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>28.3729251100688</v>
+        <v>28.56714433333333</v>
       </c>
       <c r="N11">
-        <v>28.3729251100688</v>
+        <v>85.70143299999999</v>
       </c>
       <c r="O11">
-        <v>0.5795617304145235</v>
+        <v>0.5578707978254833</v>
       </c>
       <c r="P11">
-        <v>0.5795617304145235</v>
+        <v>0.5578707978254833</v>
       </c>
       <c r="Q11">
-        <v>19.4742130665636</v>
+        <v>24.22718567668756</v>
       </c>
       <c r="R11">
-        <v>19.4742130665636</v>
+        <v>218.044671090188</v>
       </c>
       <c r="S11">
-        <v>0.09977399106476623</v>
+        <v>0.1050774407831498</v>
       </c>
       <c r="T11">
-        <v>0.09977399106476623</v>
+        <v>0.1050774407831498</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.686366068743921</v>
+        <v>0.8480786666666668</v>
       </c>
       <c r="H12">
-        <v>0.686366068743921</v>
+        <v>2.544236</v>
       </c>
       <c r="I12">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="J12">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.4617223884512</v>
+        <v>12.81995433333333</v>
       </c>
       <c r="N12">
-        <v>11.4617223884512</v>
+        <v>38.459863</v>
       </c>
       <c r="O12">
-        <v>0.2341237512597641</v>
+        <v>0.2503532753771899</v>
       </c>
       <c r="P12">
-        <v>0.2341237512597641</v>
+        <v>0.2503532753771899</v>
       </c>
       <c r="Q12">
-        <v>7.866937336795435</v>
+        <v>10.87232977774089</v>
       </c>
       <c r="R12">
-        <v>7.866937336795435</v>
+        <v>97.850967999668</v>
       </c>
       <c r="S12">
-        <v>0.04030538912487152</v>
+        <v>0.04715515056685873</v>
       </c>
       <c r="T12">
-        <v>0.04030538912487152</v>
+        <v>0.04715515056685874</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.686366068743921</v>
+        <v>0.8480786666666668</v>
       </c>
       <c r="H13">
-        <v>0.686366068743921</v>
+        <v>2.544236</v>
       </c>
       <c r="I13">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="J13">
-        <v>0.1721542086524662</v>
+        <v>0.1883544383264543</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.76641624329926</v>
+        <v>4.059731</v>
       </c>
       <c r="N13">
-        <v>3.76641624329926</v>
+        <v>12.179193</v>
       </c>
       <c r="O13">
-        <v>0.07693499020491353</v>
+        <v>0.0792800759326923</v>
       </c>
       <c r="P13">
-        <v>0.07693499020491353</v>
+        <v>0.07928007593269232</v>
       </c>
       <c r="Q13">
-        <v>2.58514031016656</v>
+        <v>3.442971253505334</v>
       </c>
       <c r="R13">
-        <v>2.58514031016656</v>
+        <v>30.98674128154801</v>
       </c>
       <c r="S13">
-        <v>0.01324468235641212</v>
+        <v>0.0149327541727809</v>
       </c>
       <c r="T13">
-        <v>0.01324468235641212</v>
+        <v>0.01493275417278091</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.5465609439114389</v>
+        <v>0.7843913333333336</v>
       </c>
       <c r="H14">
-        <v>0.5465609439114389</v>
+        <v>2.353174000000001</v>
       </c>
       <c r="I14">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767371</v>
       </c>
       <c r="J14">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767372</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.35476550138397</v>
+        <v>5.760626333333334</v>
       </c>
       <c r="N14">
-        <v>5.35476550138397</v>
+        <v>17.281879</v>
       </c>
       <c r="O14">
-        <v>0.1093795281207988</v>
+        <v>0.1124958508646345</v>
       </c>
       <c r="P14">
-        <v>0.1093795281207988</v>
+        <v>0.1124958508646345</v>
       </c>
       <c r="Q14">
-        <v>2.926705686860832</v>
+        <v>4.518585370438446</v>
       </c>
       <c r="R14">
-        <v>2.926705686860832</v>
+        <v>40.66726833394601</v>
       </c>
       <c r="S14">
-        <v>0.01499465503699456</v>
+        <v>0.01959787624621738</v>
       </c>
       <c r="T14">
-        <v>0.01499465503699456</v>
+        <v>0.01959787624621738</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.5465609439114389</v>
+        <v>0.7843913333333336</v>
       </c>
       <c r="H15">
-        <v>0.5465609439114389</v>
+        <v>2.353174000000001</v>
       </c>
       <c r="I15">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767371</v>
       </c>
       <c r="J15">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767372</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>28.3729251100688</v>
+        <v>28.56714433333333</v>
       </c>
       <c r="N15">
-        <v>28.3729251100688</v>
+        <v>85.70143299999999</v>
       </c>
       <c r="O15">
-        <v>0.5795617304145235</v>
+        <v>0.5578707978254833</v>
       </c>
       <c r="P15">
-        <v>0.5795617304145235</v>
+        <v>0.5578707978254833</v>
       </c>
       <c r="Q15">
-        <v>15.50753272968777</v>
+        <v>22.40782043314912</v>
       </c>
       <c r="R15">
-        <v>15.50753272968777</v>
+        <v>201.670383898342</v>
       </c>
       <c r="S15">
-        <v>0.07945114016776356</v>
+        <v>0.09718654308698088</v>
       </c>
       <c r="T15">
-        <v>0.07945114016776356</v>
+        <v>0.09718654308698089</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.5465609439114389</v>
+        <v>0.7843913333333336</v>
       </c>
       <c r="H16">
-        <v>0.5465609439114389</v>
+        <v>2.353174000000001</v>
       </c>
       <c r="I16">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767371</v>
       </c>
       <c r="J16">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767372</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.4617223884512</v>
+        <v>12.81995433333333</v>
       </c>
       <c r="N16">
-        <v>11.4617223884512</v>
+        <v>38.459863</v>
       </c>
       <c r="O16">
-        <v>0.2341237512597641</v>
+        <v>0.2503532753771899</v>
       </c>
       <c r="P16">
-        <v>0.2341237512597641</v>
+        <v>0.2503532753771899</v>
       </c>
       <c r="Q16">
-        <v>6.26452980748276</v>
+        <v>10.05586107279578</v>
       </c>
       <c r="R16">
-        <v>6.26452980748276</v>
+        <v>90.50274965516202</v>
       </c>
       <c r="S16">
-        <v>0.03209563020083768</v>
+        <v>0.04361398639120634</v>
       </c>
       <c r="T16">
-        <v>0.03209563020083768</v>
+        <v>0.04361398639120635</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.5465609439114389</v>
+        <v>0.7843913333333336</v>
       </c>
       <c r="H17">
-        <v>0.5465609439114389</v>
+        <v>2.353174000000001</v>
       </c>
       <c r="I17">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767371</v>
       </c>
       <c r="J17">
-        <v>0.1370883134587531</v>
+        <v>0.1742097694767372</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.76641624329926</v>
+        <v>4.059731</v>
       </c>
       <c r="N17">
-        <v>3.76641624329926</v>
+        <v>12.179193</v>
       </c>
       <c r="O17">
-        <v>0.07693499020491353</v>
+        <v>0.0792800759326923</v>
       </c>
       <c r="P17">
-        <v>0.07693499020491353</v>
+        <v>0.07928007593269232</v>
       </c>
       <c r="Q17">
-        <v>2.058576017101019</v>
+        <v>3.184417812064668</v>
       </c>
       <c r="R17">
-        <v>2.058576017101019</v>
+        <v>28.65976030858201</v>
       </c>
       <c r="S17">
-        <v>0.01054688805315728</v>
+        <v>0.01381136375233254</v>
       </c>
       <c r="T17">
-        <v>0.01054688805315728</v>
+        <v>0.01381136375233255</v>
       </c>
     </row>
   </sheetData>
